--- a/avbernat_working_on/allmorphology_scripts_and_data/update on 04.20.2020/morph_to_cp.xlsx
+++ b/avbernat_working_on/allmorphology_scripts_and_data/update on 04.20.2020/morph_to_cp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/allmorphology_scripts_and_data/update on 04.20.2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B61D66-1D64-654F-920E-0D97EBD320DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA2F759-2A84-FB4A-8DFE-291E74845C4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="460" windowWidth="24420" windowHeight="16240" xr2:uid="{7C2E77B4-D836-9247-9438-7111AF0EE493}"/>
   </bookViews>
@@ -677,8 +677,8 @@
   <dimension ref="A1:T226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2656,7 +2656,7 @@
         <v>3.77</v>
       </c>
       <c r="G35" s="4">
-        <v>10.01</v>
+        <v>10.11</v>
       </c>
       <c r="H35" s="4">
         <v>13.74</v>
@@ -4406,7 +4406,7 @@
         <v>8.74</v>
       </c>
       <c r="H66" s="4">
-        <v>11.28</v>
+        <v>11.78</v>
       </c>
       <c r="I66" s="23" t="s">
         <v>48</v>
@@ -7858,7 +7858,7 @@
         <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E127" s="4">
         <v>8.5</v>
@@ -7867,10 +7867,10 @@
         <v>3.75</v>
       </c>
       <c r="G127" s="4">
-        <v>9.1199999999999992</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="H127" s="4">
-        <v>13.19</v>
+        <v>13.32</v>
       </c>
       <c r="I127" s="23" t="s">
         <v>48</v>
